--- a/document/unit_test_case/Home.xlsx
+++ b/document/unit_test_case/Home.xlsx
@@ -8,13 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="4" r:id="rId2"/>
-    <sheet name="Evidence_UT0001" sheetId="5" r:id="rId3"/>
-    <sheet name="Evidence_UT0002" sheetId="6" r:id="rId4"/>
-    <sheet name="Evidence_UT0003" sheetId="7" r:id="rId5"/>
-    <sheet name="Evidence_UT0004" sheetId="8" r:id="rId6"/>
-    <sheet name="Evidence_UT0006" sheetId="9" r:id="rId7"/>
-    <sheet name="Evidence_UT0007" sheetId="10" r:id="rId8"/>
+    <sheet name="Evidence_UT0014" sheetId="15" r:id="rId2"/>
+    <sheet name="Evidence_UT0013" sheetId="14" r:id="rId3"/>
+    <sheet name="Evidence_UT0011" sheetId="16" r:id="rId4"/>
+    <sheet name="Evidence_UT0012" sheetId="13" r:id="rId5"/>
+    <sheet name="Evidence_UT0010" sheetId="12" r:id="rId6"/>
+    <sheet name="Evidence_UT0009" sheetId="11" r:id="rId7"/>
+    <sheet name="TestData" sheetId="4" r:id="rId8"/>
+    <sheet name="Evidence_UT0001" sheetId="5" r:id="rId9"/>
+    <sheet name="Evidence_UT0002" sheetId="6" r:id="rId10"/>
+    <sheet name="Evidence_UT0003" sheetId="7" r:id="rId11"/>
+    <sheet name="Evidence_UT0004" sheetId="8" r:id="rId12"/>
+    <sheet name="Evidence_UT0006" sheetId="9" r:id="rId13"/>
+    <sheet name="Evidence_UT0007" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="175">
   <si>
     <t>EFODE Co., Ltd</t>
   </si>
@@ -528,39 +534,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>user_status_type_id</t>
-  </si>
-  <si>
-    <t>remember_token</t>
-  </si>
-  <si>
-    <t>pkika</t>
-  </si>
-  <si>
     <t>tac duonggg</t>
   </si>
   <si>
@@ -583,6 +556,57 @@
   </si>
   <si>
     <t>Evidence_UT0007!A1</t>
+  </si>
+  <si>
+    <t>warning_id</t>
+  </si>
+  <si>
+    <t>drive_id</t>
+  </si>
+  <si>
+    <t>location_lat</t>
+  </si>
+  <si>
+    <t>location_long</t>
+  </si>
+  <si>
+    <t>warning_type_id</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>TestData!A18</t>
+  </si>
+  <si>
+    <t>TestData!A24</t>
+  </si>
+  <si>
+    <t>TestData!A28</t>
+  </si>
+  <si>
+    <t>Evidence_UT0009!A1</t>
+  </si>
+  <si>
+    <t>Evidence_UT0010!A1</t>
+  </si>
+  <si>
+    <t>Evidence_UT0012!A1</t>
+  </si>
+  <si>
+    <t>Evidence_UT0011!A1</t>
+  </si>
+  <si>
+    <t>Evidence_UT0013!A1</t>
+  </si>
+  <si>
+    <t>Evidence_UT0014!A1</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1181,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1292,43 +1316,73 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1337,13 +1391,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1352,80 +1418,155 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1433,206 +1574,77 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1640,58 +1652,51 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1706,74 +1711,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1789,23 +1726,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69C17E4-6A80-4EEB-85F3-A1E3BBA9DA11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1751,51 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954780" y="2225040"/>
+          <a:ext cx="5171429" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130016</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Hình ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4AF57B-4556-4FFF-8181-103AF6ACF256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1827,8 +1808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680085" y="194311"/>
-          <a:ext cx="2596516" cy="4185284"/>
+          <a:off x="220980" y="83820"/>
+          <a:ext cx="3261836" cy="5798820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1840,117 +1821,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="173355"/>
-          <a:ext cx="2634615" cy="4246245"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670561" y="175260"/>
-          <a:ext cx="2468880" cy="4206240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2055,7 +1926,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2160,7 +2031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2265,15 +2136,743 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Hình ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8824786-C783-4463-91D0-3F142FDA46A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="68580"/>
+          <a:ext cx="3377565" cy="6004560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245091</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Hình ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054B853E-C7BE-433B-B7A1-69A315C2A321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2674620"/>
+          <a:ext cx="5228571" cy="495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234F1217-AA50-4B9D-B82E-115015510526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="0"/>
+          <a:ext cx="3368040" cy="5196840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398779</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9302ED44-0858-4DA4-B0C4-121EF3C4C1A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="35280"/>
+          <a:ext cx="3713479" cy="6601740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>183019</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>172860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Hình ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167DF25A-6DAD-4B3B-81B0-422899FBAC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3845700" y="55740"/>
+          <a:ext cx="3713479" cy="6601740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>668299</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Hình ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBD8EA2-5CC3-45EB-A6D5-387AEDB396D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683780" y="38100"/>
+          <a:ext cx="3713479" cy="6601740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167719</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB8DB17-B3D2-4967-A2B8-A687D76D619A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3863340" y="137160"/>
+          <a:ext cx="3680539" cy="6543180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411559</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Hình ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7D6B47-4B3E-4228-8DC6-9C4BD70EB33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83820" y="137160"/>
+          <a:ext cx="3680539" cy="6543180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>88098</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5043B55-7D0C-4ACB-A619-E56E881F43CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6697980" y="2705100"/>
+          <a:ext cx="11495238" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>515857</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Hình ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8483B11F-2D77-4392-80E6-22B8099BC8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53340" y="109080"/>
+          <a:ext cx="3144757" cy="5590680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452497</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Hình ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D30CA2-B1FF-40DA-98F2-98A099CFAA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3342780" y="68580"/>
+          <a:ext cx="3144757" cy="5590680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594361</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680085" y="194311"/>
+          <a:ext cx="2596516" cy="4185284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="173355"/>
+          <a:ext cx="2634615" cy="4246245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670561" y="175260"/>
+          <a:ext cx="2468880" cy="4206240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="293338"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="DADDDF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2564,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:M40"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75:M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2584,7 +3183,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2608,7 +3207,7 @@
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+      <c r="A2" s="119"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2681,16 +3280,16 @@
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
       <c r="J6" s="22"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -2699,14 +3298,14 @@
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="22"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -2781,1376 +3380,1510 @@
         <v>24</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="69" t="s">
+      <c r="G11" s="57"/>
+      <c r="H11" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="83">
         <v>42865</v>
       </c>
-      <c r="M11" s="176" t="s">
-        <v>163</v>
+      <c r="M11" s="144" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="177"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="145"/>
     </row>
     <row r="13" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="177"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="145"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="177"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="145"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="103" t="s">
+      <c r="G15" s="88"/>
+      <c r="H15" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79" t="s">
+      <c r="J15" s="88"/>
+      <c r="K15" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="80">
+      <c r="L15" s="76">
         <v>42865</v>
       </c>
-      <c r="M15" s="178" t="s">
-        <v>164</v>
+      <c r="M15" s="146" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="179"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="147"/>
     </row>
     <row r="17" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="179"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="147"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="180"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="148"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57" t="s">
+      <c r="J19" s="78"/>
+      <c r="K19" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="140">
         <v>42865</v>
       </c>
-      <c r="M19" s="181" t="s">
-        <v>165</v>
+      <c r="M19" s="149" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="181"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="149"/>
     </row>
     <row r="21" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="181"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="149"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="181"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="149"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="176"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="144"/>
     </row>
     <row r="24" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="89" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="91"/>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="76" t="s">
+      <c r="G24" s="88"/>
+      <c r="H24" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="79" t="s">
+      <c r="I24" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79" t="s">
+      <c r="J24" s="88"/>
+      <c r="K24" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="80">
+      <c r="L24" s="76">
         <v>42865</v>
       </c>
-      <c r="M24" s="178" t="s">
-        <v>166</v>
+      <c r="M24" s="146" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="79" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="88" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="92"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="179"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="92"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="179"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="147"/>
     </row>
     <row r="27" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="180"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="108" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="121" t="s">
+      <c r="E28" s="109"/>
+      <c r="F28" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="118"/>
-      <c r="H28" s="121" t="s">
+      <c r="G28" s="105"/>
+      <c r="H28" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="118" t="s">
+      <c r="I28" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118" t="s">
+      <c r="J28" s="105"/>
+      <c r="K28" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="125">
+      <c r="L28" s="112">
         <v>42865</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="128" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="54"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="151"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="54"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="151"/>
     </row>
     <row r="31" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="55"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="152"/>
     </row>
     <row r="32" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="89" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="91"/>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="76" t="s">
+      <c r="G32" s="88"/>
+      <c r="H32" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="79" t="s">
+      <c r="I32" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79" t="s">
+      <c r="J32" s="88"/>
+      <c r="K32" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="80">
+      <c r="L32" s="76">
         <v>42865</v>
       </c>
-      <c r="M32" s="178" t="s">
-        <v>167</v>
+      <c r="M32" s="146" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="92"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="179"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="147"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="83" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="52" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="92"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="179"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="147"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="180"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="78" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="57" t="s">
+      <c r="E36" s="143"/>
+      <c r="F36" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57" t="s">
+      <c r="G36" s="78"/>
+      <c r="H36" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="57" t="s">
+      <c r="I36" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57" t="s">
+      <c r="J36" s="78"/>
+      <c r="K36" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="140">
         <v>42865</v>
       </c>
-      <c r="M36" s="181" t="s">
-        <v>168</v>
+      <c r="M36" s="149" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="181"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="61" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="181"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="181"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="176"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="144"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="78" t="s">
         <v>101</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="69" t="s">
+      <c r="E41" s="80"/>
+      <c r="F41" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="69" t="s">
+      <c r="G41" s="57"/>
+      <c r="H41" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58" t="s">
+      <c r="J41" s="57"/>
+      <c r="K41" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="72">
+      <c r="L41" s="66">
         <v>42865</v>
       </c>
-      <c r="M41" s="48"/>
+      <c r="M41" s="86"/>
     </row>
     <row r="42" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="49"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="87"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="61" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="49"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="87"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="49"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="87"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="49"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="87"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="56"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="153"/>
     </row>
     <row r="47" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="79" t="s">
+      <c r="C47" s="88" t="s">
         <v>109</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="76" t="s">
+      <c r="E47" s="88"/>
+      <c r="F47" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79" t="s">
+      <c r="G47" s="88"/>
+      <c r="H47" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="79" t="s">
+      <c r="I47" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79" t="s">
+      <c r="J47" s="88"/>
+      <c r="K47" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="L47" s="80">
+      <c r="L47" s="76">
         <v>42865</v>
       </c>
-      <c r="M47" s="50"/>
+      <c r="M47" s="146" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="51"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="147"/>
     </row>
     <row r="49" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="51"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="147"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="83" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="51"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="147"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="51"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="147"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="52"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="148"/>
     </row>
     <row r="53" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="57" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="58" t="s">
+      <c r="E53" s="168"/>
+      <c r="F53" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58" t="s">
+      <c r="G53" s="57"/>
+      <c r="H53" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="58" t="s">
+      <c r="I53" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58" t="s">
+      <c r="J53" s="57"/>
+      <c r="K53" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="L53" s="60">
+      <c r="L53" s="83">
         <v>42865</v>
       </c>
-      <c r="M53" s="134"/>
+      <c r="M53" s="172" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="135"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="173"/>
     </row>
     <row r="55" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="135"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="173"/>
     </row>
     <row r="56" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
       <c r="D56" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="132"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="136"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="174"/>
     </row>
     <row r="57" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="89" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="91"/>
-      <c r="F57" s="76" t="s">
+      <c r="E57" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="G57" s="79"/>
-      <c r="H57" s="76" t="s">
+      <c r="G57" s="88"/>
+      <c r="H57" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="I57" s="79" t="s">
+      <c r="I57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79" t="s">
+      <c r="J57" s="88"/>
+      <c r="K57" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="80">
+      <c r="L57" s="76">
         <v>42865</v>
       </c>
-      <c r="M57" s="50"/>
+      <c r="M57" s="146" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="92"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="51"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="147"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="83" t="s">
+      <c r="A59" s="75"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="92"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="51"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="147"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="51"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="147"/>
     </row>
     <row r="61" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="78" t="s">
         <v>133</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="69" t="s">
+      <c r="E61" s="80"/>
+      <c r="F61" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="69" t="s">
+      <c r="G61" s="57"/>
+      <c r="H61" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="I61" s="58" t="s">
+      <c r="I61" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58" t="s">
+      <c r="J61" s="57"/>
+      <c r="K61" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="L61" s="60">
+      <c r="L61" s="83">
         <v>42865</v>
       </c>
-      <c r="M61" s="48"/>
+      <c r="M61" s="144" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="67"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="49"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="145"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="61" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="67"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="49"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="145"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="49"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="145"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="49"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="145"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="61" t="s">
+      <c r="A66" s="55"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="49"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="145"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="49"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="145"/>
     </row>
     <row r="68" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="144"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="147"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="147"/>
-      <c r="I68" s="147"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="149"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="175"/>
     </row>
     <row r="69" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="138" t="s">
+      <c r="A69" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="140" t="s">
+      <c r="C69" s="69" t="s">
         <v>141</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="142"/>
-      <c r="F69" s="140" t="s">
+      <c r="E69" s="170" t="s">
+        <v>167</v>
+      </c>
+      <c r="F69" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="139"/>
-      <c r="H69" s="140" t="s">
+      <c r="G69" s="48"/>
+      <c r="H69" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="I69" s="139" t="s">
+      <c r="I69" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="139"/>
-      <c r="K69" s="139" t="s">
+      <c r="J69" s="48"/>
+      <c r="K69" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="L69" s="150">
+      <c r="L69" s="50">
         <v>42865</v>
       </c>
-      <c r="M69" s="152"/>
+      <c r="M69" s="176" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="83" t="s">
+      <c r="A70" s="75"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="143"/>
-      <c r="F70" s="141"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="151"/>
-      <c r="M70" s="51"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="147"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="131"/>
-      <c r="E71" s="143"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="151"/>
-      <c r="M71" s="51"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="147"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="143"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="151"/>
-      <c r="M72" s="51"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="147"/>
     </row>
     <row r="73" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="141"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="143"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="151"/>
-      <c r="M73" s="51"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="147"/>
     </row>
     <row r="74" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="141"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="143"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="151"/>
-      <c r="M74" s="51"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="147"/>
     </row>
     <row r="75" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="57" t="s">
         <v>146</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="153"/>
-      <c r="F75" s="58" t="s">
+      <c r="E75" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="G75" s="153"/>
-      <c r="H75" s="69" t="s">
+      <c r="G75" s="60"/>
+      <c r="H75" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="I75" s="58" t="s">
+      <c r="I75" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J75" s="153"/>
-      <c r="K75" s="58" t="s">
+      <c r="J75" s="60"/>
+      <c r="K75" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="L75" s="72">
+      <c r="L75" s="66">
         <v>42865</v>
       </c>
-      <c r="M75" s="159"/>
+      <c r="M75" s="144" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E76" s="154"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="160"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="145"/>
     </row>
     <row r="77" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="154"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="73"/>
-      <c r="M77" s="160"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="145"/>
     </row>
     <row r="78" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="144"/>
-      <c r="B78" s="147"/>
-      <c r="C78" s="147"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E78" s="155"/>
-      <c r="F78" s="147"/>
-      <c r="G78" s="155"/>
-      <c r="H78" s="157"/>
-      <c r="I78" s="147"/>
-      <c r="J78" s="155"/>
-      <c r="K78" s="147"/>
-      <c r="L78" s="158"/>
-      <c r="M78" s="161"/>
+      <c r="E78" s="171"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="K69:K74"/>
-    <mergeCell ref="L69:L74"/>
-    <mergeCell ref="M69:M74"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="L75:L78"/>
-    <mergeCell ref="M75:M78"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="I69:I74"/>
-    <mergeCell ref="J69:J74"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="M41:M46"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="L41:L46"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="M53:M56"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="H47:H52"/>
     <mergeCell ref="D66:D68"/>
     <mergeCell ref="A69:A74"/>
     <mergeCell ref="B69:B74"/>
@@ -4175,173 +4908,233 @@
     <mergeCell ref="G57:G60"/>
     <mergeCell ref="H57:H60"/>
     <mergeCell ref="I57:I60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="M53:M56"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="H47:H52"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="H41:H46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="M41:M46"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="K69:K74"/>
+    <mergeCell ref="L69:L74"/>
+    <mergeCell ref="M69:M74"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
+    <mergeCell ref="M75:M78"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="I69:I74"/>
+    <mergeCell ref="J69:J74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E11:E14" location="TestData!A1" display="TestData!A1"/>
     <hyperlink ref="E15:E18" location="TestData!A5" display="TestData!A5"/>
     <hyperlink ref="E19:E23" location="TestData!A11" display="TestData!A11"/>
-    <hyperlink ref="E53:E56" location="TestData!A18" display="Add warning when turnoff gps"/>
     <hyperlink ref="M11:M14" location="Evidence_UT0001!A1" display="Evidence_UT0001!A1"/>
     <hyperlink ref="M15:M18" location="Evidence_UT0002!A1" display="Evidence_UT0002!A1"/>
     <hyperlink ref="M19:M23" location="Evidence_UT0003!A1" display="Evidence_UT0003!A1"/>
     <hyperlink ref="M24:M27" location="Evidence_UT0004!A1" display="Evidence_UT0004!A1"/>
     <hyperlink ref="M32:M35" location="Evidence_UT0006!A1" display="Evidence_UT0006!A1"/>
     <hyperlink ref="M36:M40" location="Evidence_UT0007!A1" display="Evidence_UT0007!A1"/>
+    <hyperlink ref="E57:E60" location="TestData!A18" display="TestData!A18"/>
+    <hyperlink ref="E69:E74" location="TestData!A24" display="TestData!A24"/>
+    <hyperlink ref="E75:E78" location="TestData!A28" display="TestData!A28"/>
+    <hyperlink ref="M47:M52" location="Evidence_UT0009!A1" display="Evidence_UT0009!A1"/>
+    <hyperlink ref="M53:M56" location="Evidence_UT0010!A1" display="Evidence_UT0010!A1"/>
+    <hyperlink ref="M61:M68" location="Evidence_UT0012!A1" display="Evidence_UT0012!A1"/>
+    <hyperlink ref="M57:M60" location="Evidence_UT0011!A1" display="Evidence_UT0011!A1"/>
+    <hyperlink ref="M69:M74" location="Evidence_UT0013!A1" display="Evidence_UT0013!A1"/>
+    <hyperlink ref="M75:M78" location="Evidence_UT0014!A1" display="Evidence_UT0014!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" activeCellId="1" sqref="H24 F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.796875" customWidth="1"/>
     <col min="3" max="3" width="12.09765625" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.8984375" customWidth="1"/>
@@ -4365,31 +5158,31 @@
       <c r="B1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
     </row>
     <row r="2" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="167" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -4445,8 +5238,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="30">
         <v>8</v>
       </c>
@@ -4504,31 +5297,31 @@
       <c r="B5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
     </row>
     <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="163" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -4584,8 +5377,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="30">
         <v>8</v>
       </c>
@@ -4637,8 +5430,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="167"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="33">
         <v>1</v>
       </c>
@@ -4686,8 +5479,8 @@
       <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="168"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="33">
         <v>3</v>
       </c>
@@ -4739,31 +5532,31 @@
       <c r="B11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
     </row>
     <row r="12" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="163" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="29" t="s">
@@ -4819,8 +5612,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="167"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="30">
         <v>8</v>
       </c>
@@ -4872,8 +5665,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="33">
         <v>1</v>
       </c>
@@ -4921,8 +5714,8 @@
       <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="171"/>
-      <c r="B15" s="168"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="33">
         <v>3</v>
       </c>
@@ -4967,184 +5760,441 @@
       <c r="R15" s="33"/>
       <c r="S15" s="33"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="173" t="s">
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="155" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="44">
+        <v>182</v>
+      </c>
+      <c r="D19" s="44">
+        <v>10</v>
+      </c>
+      <c r="E19" s="45">
+        <v>107842324</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1067889559</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="44">
-        <v>184</v>
-      </c>
-      <c r="D19" s="44">
-        <v>7</v>
-      </c>
-      <c r="E19" s="45">
-        <v>107857732</v>
-      </c>
-      <c r="F19" s="45">
-        <v>1067914056</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>160</v>
-      </c>
       <c r="H19" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="46">
-        <v>42849.576377314814</v>
+        <v>42849.548125000001</v>
       </c>
       <c r="J19" s="46">
-        <v>42879.618043981478</v>
+        <v>42879.714791666665</v>
       </c>
       <c r="K19" s="46">
-        <v>42849.576377314814</v>
+        <v>42849.381458333337</v>
       </c>
       <c r="L19" s="46">
-        <v>42849.576377314814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
-      <c r="B20" s="174"/>
+        <v>42849.381458333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="44">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D20" s="44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" s="45">
-        <v>107857077</v>
+        <v>107889991</v>
       </c>
       <c r="F20" s="45">
-        <v>1067914333</v>
+        <v>1067907942</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="44">
         <v>3</v>
       </c>
       <c r="I20" s="46">
-        <v>42849.579837962963</v>
+        <v>42849.547465277778</v>
       </c>
       <c r="J20" s="46">
-        <v>42879.621504629627</v>
+        <v>42879.714131944442</v>
       </c>
       <c r="K20" s="46">
-        <v>42849.579837962963</v>
+        <v>42849.380798611113</v>
       </c>
       <c r="L20" s="46">
-        <v>42849.579837962963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="175"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="44">
-        <v>182</v>
-      </c>
-      <c r="D21" s="44">
+        <v>42849.380798611113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
+    </row>
+    <row r="24" spans="1:20" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="166" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="169"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="166"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="33">
+        <v>1</v>
+      </c>
+      <c r="D25" s="33">
         <v>10</v>
       </c>
-      <c r="E21" s="45">
-        <v>107842324</v>
-      </c>
-      <c r="F21" s="45">
-        <v>1067889559</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="44">
+      <c r="E25" s="33">
+        <v>3</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="34">
+        <v>42813.333333333336</v>
+      </c>
+      <c r="H25" s="34">
+        <v>42850.916666666664</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="33">
+        <v>9.234667</v>
+      </c>
+      <c r="K25" s="33">
+        <v>102.46674299999999</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="33">
+        <v>12.244567</v>
+      </c>
+      <c r="N25" s="33">
+        <v>108.355529</v>
+      </c>
+      <c r="O25" s="34">
+        <v>42864.661539351851</v>
+      </c>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33">
+        <v>3</v>
+      </c>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="159"/>
+    </row>
+    <row r="28" spans="1:20" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="166" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="166"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="33">
         <v>1</v>
       </c>
-      <c r="I21" s="46">
-        <v>42849.548125000001</v>
-      </c>
-      <c r="J21" s="46">
-        <v>42879.714791666665</v>
-      </c>
-      <c r="K21" s="46">
-        <v>42849.381458333337</v>
-      </c>
-      <c r="L21" s="46">
-        <v>42849.381458333337</v>
-      </c>
+      <c r="D29" s="33">
+        <v>10</v>
+      </c>
+      <c r="E29" s="33">
+        <v>3</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="34">
+        <v>42813.333333333336</v>
+      </c>
+      <c r="H29" s="34">
+        <v>42850.916666666664</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="33">
+        <v>9.234667</v>
+      </c>
+      <c r="K29" s="33">
+        <v>102.46674299999999</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="33">
+        <v>12.244567</v>
+      </c>
+      <c r="N29" s="33">
+        <v>108.355529</v>
+      </c>
+      <c r="O29" s="34">
+        <v>42864.661539351851</v>
+      </c>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33">
+        <v>3</v>
+      </c>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C23:S23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C27:S27"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C11:S11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C5:S5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5157,83 +6207,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J3" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>